--- a/www/IndicatorsPerCountry/GuineaBissau_GDPperCapita_TerritorialRef_1974_2012_CCode_624.xlsx
+++ b/www/IndicatorsPerCountry/GuineaBissau_GDPperCapita_TerritorialRef_1974_2012_CCode_624.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/GuineaBissau_GDPperCapita_TerritorialRef_1974_2012_CCode_624.xlsx
+++ b/www/IndicatorsPerCountry/GuineaBissau_GDPperCapita_TerritorialRef_1974_2012_CCode_624.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>797.197559411</t>
-  </si>
-  <si>
-    <t>817.95815788</t>
-  </si>
-  <si>
-    <t>802.731708663</t>
-  </si>
-  <si>
-    <t>794.307348958</t>
-  </si>
-  <si>
-    <t>796.188023213</t>
-  </si>
-  <si>
-    <t>811.726029477</t>
-  </si>
-  <si>
-    <t>831.721337339</t>
-  </si>
-  <si>
-    <t>857.540283039</t>
-  </si>
-  <si>
-    <t>601.901409765</t>
-  </si>
-  <si>
-    <t>635.791968868</t>
-  </si>
-  <si>
-    <t>680.293918251</t>
-  </si>
-  <si>
-    <t>666.68962957</t>
-  </si>
-  <si>
-    <t>619.599135862</t>
-  </si>
-  <si>
-    <t>603.713314857</t>
-  </si>
-  <si>
-    <t>604.934942455</t>
-  </si>
-  <si>
-    <t>613.792367053</t>
-  </si>
-  <si>
-    <t>605.788818137</t>
-  </si>
-  <si>
-    <t>609.052268499</t>
-  </si>
-  <si>
-    <t>616.691791147</t>
+    <t>462</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>1282.7287925733</t>
+  </si>
+  <si>
+    <t>1287.27647823764</t>
+  </si>
+  <si>
+    <t>1280.34203166404</t>
+  </si>
+  <si>
+    <t>1284.92697026771</t>
+  </si>
+  <si>
+    <t>1310.18732484107</t>
+  </si>
+  <si>
+    <t>1337.46758135933</t>
+  </si>
+  <si>
+    <t>1388.1026857943</t>
+  </si>
+  <si>
+    <t>1130.81268570957</t>
+  </si>
+  <si>
+    <t>1256.08249168794</t>
+  </si>
+  <si>
+    <t>1230.64062943992</t>
+  </si>
+  <si>
+    <t>1233.07198500692</t>
+  </si>
+  <si>
+    <t>1196.23250656114</t>
+  </si>
+  <si>
+    <t>1181.94349571599</t>
+  </si>
+  <si>
+    <t>1194.67079177702</t>
+  </si>
+  <si>
+    <t>1226.56088586415</t>
+  </si>
+  <si>
+    <t>1233.81323787354</t>
+  </si>
+  <si>
+    <t>1252.57394537585</t>
+  </si>
+  <si>
+    <t>1270.72275565182</t>
+  </si>
+  <si>
+    <t>1292.02929357256</t>
+  </si>
+  <si>
+    <t>1329.37240931896</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1378</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>1436</t>
   </si>
   <si>
     <t>Description</t>
@@ -934,7 +958,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -951,7 +975,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +992,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1009,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1002,7 +1026,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -1309,6 +1333,142 @@
       </c>
       <c r="E60" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
